--- a/biology/Botanique/Friedrich_Fedde/Friedrich_Fedde.xlsx
+++ b/biology/Botanique/Friedrich_Fedde/Friedrich_Fedde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Karl Georg Fedde, né le 30 juin 1873 à Breslau et mort le 14 mars 1942 à Berlin-Dahlem, est un botaniste et explorateur allemand, spécialiste de phytogéographie.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Friedrich Fedde poursuit ses études de sciences naturelles à Breslau qu'il termine en 1896. Ensuite il est privat-docent à Breslau, Tarnowitz et Berlin, puis il est nommé au musée botanique de Berlin-Dahlem en 1901 et professeur à l'université de Berlin (1912).
 IL participe à plusieurs expéditions botaniques autour de la Méditerranée, dans le grand-duché de Finlande et dans le sud de l'Empire russe.
-Il édite Repertorium specierum novarum regni vegetabilis[1] (1911-1942) et y publie des articles, ainsi que dans Beheifte. Il fait paraître des articles également dans le Bulletin de l'Herbier Boissier. Il a rédigé les articles concernant les Papaveraceae (Hypecoideae et Papaveroideae) dans l'ouvrage fondamental d'Adolf Engler intitulé Das Pflanzenreich paru en 1909, ainsi que dans l'édition de 1936 du volume 17b Papaveraceae.
+Il édite Repertorium specierum novarum regni vegetabilis (1911-1942) et y publie des articles, ainsi que dans Beheifte. Il fait paraître des articles également dans le Bulletin de l'Herbier Boissier. Il a rédigé les articles concernant les Papaveraceae (Hypecoideae et Papaveroideae) dans l'ouvrage fondamental d'Adolf Engler intitulé Das Pflanzenreich paru en 1909, ainsi que dans l'édition de 1936 du volume 17b Papaveraceae.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(de + la) Papaveraceæ novæ vel notabiles in herbario Boissier et Barbey-Boissier versantes // Bulletin de l'Herbier Boissier, 2e série, Genève, tome V (n°5), pp. 445 sq, 1905
 (de) Lichtbilder zur Pflanzengeographie und Biologie, 1912
@@ -577,7 +593,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Genre
 (Asteraceae) Feddea (tr) Urb. (genre monotypique, comprenant l'espèce Feddea cubensis, endémique de Cuba)
